--- a/data/climate_data_availability/6124_data.xlsx
+++ b/data/climate_data_availability/6124_data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_61BCFD9B9057D2C39F79039A8F185266DFD701FB" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="179016" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -27,16 +31,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -57,10 +58,28 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Boma</t>
@@ -69,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -125,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +228,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,37 +472,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -472,13 +528,31 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6124</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -519,13 +593,22 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>6124</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -566,13 +649,22 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>6124</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -613,13 +705,22 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>6124</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -660,13 +761,22 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>6124</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -707,13 +817,22 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6124</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -754,13 +873,22 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6124</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -801,13 +929,22 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6124</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -848,13 +985,22 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>6124</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -895,13 +1041,22 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6124</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -942,13 +1097,22 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>6124</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -989,13 +1153,22 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>6124</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1036,13 +1209,22 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>6124</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1083,13 +1265,22 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>6124</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1130,13 +1321,22 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>6124</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1177,13 +1377,22 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6124</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1224,13 +1433,22 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6124</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1271,13 +1489,22 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6124</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1318,13 +1545,22 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6124</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -1365,13 +1601,22 @@
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6124</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1412,13 +1657,22 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6124</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1459,13 +1713,22 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6124</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1506,13 +1769,22 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6124</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1553,13 +1825,22 @@
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6124</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1600,13 +1881,22 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6124</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1647,13 +1937,22 @@
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6124</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1694,13 +1993,22 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6124</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -1741,13 +2049,22 @@
       <c r="O28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6124</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1788,13 +2105,22 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6124</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1835,13 +2161,22 @@
       <c r="O30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6124</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1882,13 +2217,22 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6124</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1929,13 +2273,22 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6124</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1976,13 +2329,22 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6124</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2023,13 +2385,22 @@
       <c r="O34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6124</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2070,13 +2441,22 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6124</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2116,6 +2496,15 @@
       </c>
       <c r="O36">
         <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2124,24 +2513,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
